--- a/data/123-madao_service/service-article_structure.xlsx
+++ b/data/123-madao_service/service-article_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="243">
   <si>
     <t>类名</t>
   </si>
@@ -733,25 +733,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>findTagsByCondition(org.springframework.data.domain.Pageable)</t>
-  </si>
-  <si>
-    <t>findArticleByCondition(org.springframework.data.domain.Pageable)</t>
-  </si>
-  <si>
-    <t>findCategoryByCondition(org.springframework.data.domain.Pageable)</t>
-  </si>
-  <si>
     <t>源接口名</t>
   </si>
   <si>
     <t>源操作签名</t>
-  </si>
-  <si>
-    <t>updateByPrimaryKeySelective(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>insertArticle(javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>目标接口</t>
@@ -8575,7 +8560,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8994,7 +8979,7 @@
         <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -9113,13 +9098,13 @@
         <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
         <v>236</v>
@@ -9130,13 +9115,13 @@
         <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
         <v>236</v>
@@ -9147,13 +9132,13 @@
         <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
         <v>236</v>
@@ -9167,10 +9152,10 @@
         <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
         <v>236</v>
@@ -9181,13 +9166,13 @@
         <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>236</v>
@@ -9195,16 +9180,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
         <v>236</v>
@@ -9215,13 +9200,13 @@
         <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
         <v>236</v>
@@ -9232,13 +9217,13 @@
         <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
         <v>236</v>
@@ -9246,13 +9231,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>84</v>
@@ -9266,13 +9251,13 @@
         <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
         <v>236</v>
@@ -9280,16 +9265,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
         <v>236</v>
@@ -9300,13 +9285,13 @@
         <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
         <v>236</v>
@@ -9317,13 +9302,13 @@
         <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E44" t="s">
         <v>236</v>
@@ -9337,10 +9322,10 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
         <v>236</v>
@@ -9348,16 +9333,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
         <v>236</v>
@@ -9371,10 +9356,10 @@
         <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
         <v>236</v>
@@ -9385,7 +9370,7 @@
         <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>71</v>
@@ -9405,10 +9390,10 @@
         <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
         <v>236</v>
@@ -9419,13 +9404,13 @@
         <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
         <v>236</v>
@@ -9436,15 +9421,32 @@
         <v>160</v>
       </c>
       <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>68</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>69</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9455,7 +9457,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9463,10 +9465,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
@@ -9582,16 +9584,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
         <v>236</v>
@@ -9599,16 +9601,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
         <v>236</v>
@@ -9616,16 +9618,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>236</v>
@@ -9636,13 +9638,13 @@
         <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
         <v>236</v>
@@ -9653,13 +9655,13 @@
         <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>236</v>
@@ -9667,16 +9669,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>236</v>
@@ -9684,16 +9686,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
         <v>236</v>
@@ -9701,16 +9703,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>236</v>
@@ -9718,16 +9720,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
         <v>236</v>
@@ -9738,13 +9740,13 @@
         <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
         <v>236</v>
@@ -9755,13 +9757,13 @@
         <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
         <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
         <v>236</v>
@@ -9769,16 +9771,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>236</v>
@@ -9786,16 +9788,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>236</v>
@@ -9803,16 +9805,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>236</v>
@@ -9820,16 +9822,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
         <v>236</v>
@@ -9837,16 +9839,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>236</v>
@@ -9854,16 +9856,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
         <v>236</v>
@@ -9871,16 +9873,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
         <v>236</v>
@@ -9888,16 +9890,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
         <v>236</v>
@@ -9905,16 +9907,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>236</v>
@@ -9922,16 +9924,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
         <v>236</v>
@@ -9939,16 +9941,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
         <v>236</v>
@@ -9956,16 +9958,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
         <v>236</v>
@@ -9973,16 +9975,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
         <v>236</v>
@@ -9990,16 +9992,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
         <v>236</v>
@@ -10007,16 +10009,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
         <v>236</v>
@@ -10024,16 +10026,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
         <v>236</v>
@@ -10041,18 +10043,154 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
         <v>227</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D43" t="s">
         <v>136</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E43" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10077,10 +10215,10 @@
         <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
         <v>235</v>
@@ -10101,16 +10239,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
         <v>240</v>
-      </c>
-      <c r="B1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
       </c>
       <c r="E1" t="s">
         <v>235</v>
@@ -10140,7 +10278,7 @@
         <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
         <v>235</v>
@@ -10161,16 +10299,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
         <v>235</v>
